--- a/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/21_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/21_11R22.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="59">
   <si>
     <t>Signal_Value_89</t>
   </si>
@@ -121,6 +121,15 @@
   </si>
   <si>
     <t>Signal_Value_122</t>
+  </si>
+  <si>
+    <t>Signal_Value_123</t>
+  </si>
+  <si>
+    <t>Signal_Value_124</t>
+  </si>
+  <si>
+    <t>Signal_Value_125</t>
   </si>
   <si>
     <t>Segment_ID</t>
@@ -544,15 +553,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI6"/>
+  <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:38">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -656,10 +665,19 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:35">
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -668,64 +686,64 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1394125610291484</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3513066017617835</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.1254598515707391</v>
+        <v>0.1740295844911117</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.1612827082177539</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.3732653008452436</v>
       </c>
       <c r="J2">
-        <v>0.0300724787281603</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.1219764422094778</v>
       </c>
       <c r="L2">
-        <v>0.01847361026986566</v>
+        <v>0.02163999729921424</v>
       </c>
       <c r="M2">
-        <v>0.007290732174072548</v>
+        <v>0.0110976094435199</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.1345315493922528</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.05155416210444903</v>
+        <v>0.02044265348281455</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.001203450732164313</v>
       </c>
       <c r="R2">
-        <v>0.01016696765940623</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.006832566738613331</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.03051147419784146</v>
+        <v>0.03456239729537649</v>
       </c>
       <c r="U2">
-        <v>0.06775426251041856</v>
+        <v>0.008064863883952878</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.02291450278089644</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.02163999729921424</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -752,21 +770,30 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.0052268959931728</v>
+        <v>0</v>
       </c>
       <c r="AG2">
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.006663447141420697</v>
       </c>
       <c r="AI2">
-        <v>0.02140628587007671</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0.02121704487783905</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -775,31 +802,31 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2230528271171323</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.01467447455852309</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3180285973369705</v>
+        <v>0.08010474714932678</v>
       </c>
       <c r="G3">
-        <v>0.1234638801958112</v>
+        <v>0.03927371750317835</v>
       </c>
       <c r="H3">
-        <v>0.007870437627838098</v>
+        <v>0.261111725438868</v>
       </c>
       <c r="I3">
-        <v>0.003290327977106782</v>
+        <v>0.2413570293346003</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.05198203885662605</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.1012369226572327</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.05651704223407296</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -808,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.07536738752198818</v>
+        <v>0.00790786749701541</v>
       </c>
       <c r="P3">
-        <v>0.01858482704631432</v>
+        <v>0.01599527708229681</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -820,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.006057525690476423</v>
       </c>
       <c r="T3">
-        <v>0.05536532651630817</v>
+        <v>0.03575417838666555</v>
       </c>
       <c r="U3">
-        <v>0.08156858624900915</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.04678974909485621</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.01718844506879844</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -850,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.005035748639735089</v>
+        <v>0</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -862,18 +889,27 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>0.002065730674153862</v>
       </c>
       <c r="AH3">
-        <v>0.004966203497648527</v>
+        <v>0.0119516050509034</v>
       </c>
       <c r="AI3">
-        <v>0.06873137571561452</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0.001519031140112963</v>
+      </c>
+      <c r="AK3">
+        <v>0.02318736714081559</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -882,31 +918,31 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01793053357807211</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1913214668559838</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.1961249494970221</v>
+        <v>0.2931863829230743</v>
       </c>
       <c r="G4">
-        <v>0.3657383938457505</v>
+        <v>0.05279242096973853</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.3353426788512778</v>
       </c>
       <c r="I4">
-        <v>0.05314496981627796</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1548643549885769</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.02146523629674041</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.02017160249029848</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -915,10 +951,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.01881655585632886</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.03449847998565762</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -927,16 +963,16 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.006895444680382039</v>
+        <v>0.01464661759939131</v>
       </c>
       <c r="T4">
-        <v>0.01213941746729117</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.05349163077447195</v>
+        <v>0.03666975627415184</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.03570271488160779</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -957,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.0108621898849717</v>
+        <v>0</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -969,18 +1005,27 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.006329992897913441</v>
+        <v>0</v>
       </c>
       <c r="AH4">
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.03270597485987679</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0.02634189984287863</v>
+      </c>
+      <c r="AK4">
+        <v>0.00881633488226412</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -989,28 +1034,28 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0166222887523202</v>
+        <v>0.1024550660338008</v>
       </c>
       <c r="E5">
-        <v>0.2317556573435376</v>
+        <v>0.007987873922331509</v>
       </c>
       <c r="F5">
-        <v>0.1843764365560175</v>
+        <v>0.3464668695427656</v>
       </c>
       <c r="G5">
-        <v>0.3793177551174527</v>
+        <v>0.2769204565157678</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.03896129746908829</v>
       </c>
       <c r="I5">
-        <v>0.03959424036719365</v>
+        <v>0.03231802664252788</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.07570738389718369</v>
       </c>
       <c r="K5">
-        <v>0.0007034522308447797</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1019,28 +1064,28 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.008058873848010512</v>
       </c>
       <c r="O5">
-        <v>0.001027404746738711</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.01175846956979458</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.005747452874971437</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.03295021947555255</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0.01924126858972292</v>
+        <v>0.04769307288151866</v>
       </c>
       <c r="U5">
-        <v>0.06063891458070322</v>
+        <v>0.00581294397000388</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1082,12 +1127,21 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.05496411214567382</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35">
+        <v>0.0189204629264772</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1096,46 +1150,46 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1319855251659318</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.04579184825827361</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3347741234607933</v>
+        <v>0.01700878358292555</v>
       </c>
       <c r="G6">
-        <v>0.2691990305626665</v>
+        <v>0.1166857561046437</v>
       </c>
       <c r="H6">
-        <v>0.002868226877661598</v>
+        <v>0.1772678294000274</v>
       </c>
       <c r="I6">
-        <v>0.02710799338392731</v>
+        <v>0.3738304975026489</v>
       </c>
       <c r="J6">
-        <v>0.005688870644421639</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.1193605362847764</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.04234951896147673</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.005097896931956124</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02106502934253471</v>
+        <v>0.003536349962164489</v>
       </c>
       <c r="P6">
-        <v>0.006824756269014002</v>
+        <v>0.009207707246312763</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.004357819267916895</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1144,16 +1198,16 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.03999098481229016</v>
+        <v>0.03715644214300353</v>
       </c>
       <c r="U6">
-        <v>0.04462037041324453</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>0.04297352494861471</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>0.03364147706840915</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1165,13 +1219,13 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.008009720156683404</v>
+        <v>0</v>
       </c>
       <c r="AB6">
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.008673289592570717</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1189,7 +1243,16 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.05340023105998669</v>
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0.01752586059512376</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1199,15 +1262,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI6"/>
+  <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:38">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1311,10 +1374,19 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:35">
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1323,527 +1395,572 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1394125610291484</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1394125610291484</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4907191627909319</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.616179014361671</v>
+        <v>0.1740295844911117</v>
       </c>
       <c r="H2">
-        <v>0.616179014361671</v>
+        <v>0.3353122927088656</v>
       </c>
       <c r="I2">
-        <v>0.616179014361671</v>
+        <v>0.7085775935541092</v>
       </c>
       <c r="J2">
-        <v>0.6462514930898313</v>
+        <v>0.7085775935541092</v>
       </c>
       <c r="K2">
-        <v>0.6462514930898313</v>
+        <v>0.830554035763587</v>
       </c>
       <c r="L2">
-        <v>0.6647251033596969</v>
+        <v>0.8521940330628013</v>
       </c>
       <c r="M2">
-        <v>0.6720158355337694</v>
+        <v>0.8632916425063212</v>
       </c>
       <c r="N2">
-        <v>0.6720158355337694</v>
+        <v>0.8632916425063212</v>
       </c>
       <c r="O2">
-        <v>0.8065473849260222</v>
+        <v>0.8632916425063212</v>
       </c>
       <c r="P2">
-        <v>0.8581015470304713</v>
+        <v>0.8837342959891358</v>
       </c>
       <c r="Q2">
-        <v>0.8581015470304713</v>
+        <v>0.8849377467213001</v>
       </c>
       <c r="R2">
-        <v>0.8682685146898775</v>
+        <v>0.8849377467213001</v>
       </c>
       <c r="S2">
-        <v>0.8751010814284909</v>
+        <v>0.8849377467213001</v>
       </c>
       <c r="T2">
-        <v>0.9056125556263324</v>
+        <v>0.9195001440166766</v>
       </c>
       <c r="U2">
-        <v>0.973366818136751</v>
+        <v>0.9275650079006295</v>
       </c>
       <c r="V2">
-        <v>0.973366818136751</v>
+        <v>0.9504795106815259</v>
       </c>
       <c r="W2">
-        <v>0.973366818136751</v>
+        <v>0.9721195079807402</v>
       </c>
       <c r="X2">
-        <v>0.973366818136751</v>
+        <v>0.9721195079807402</v>
       </c>
       <c r="Y2">
-        <v>0.973366818136751</v>
+        <v>0.9721195079807402</v>
       </c>
       <c r="Z2">
-        <v>0.973366818136751</v>
+        <v>0.9721195079807402</v>
       </c>
       <c r="AA2">
-        <v>0.973366818136751</v>
+        <v>0.9721195079807402</v>
       </c>
       <c r="AB2">
-        <v>0.973366818136751</v>
+        <v>0.9721195079807402</v>
       </c>
       <c r="AC2">
-        <v>0.973366818136751</v>
+        <v>0.9721195079807402</v>
       </c>
       <c r="AD2">
-        <v>0.973366818136751</v>
+        <v>0.9721195079807402</v>
       </c>
       <c r="AE2">
-        <v>0.973366818136751</v>
+        <v>0.9721195079807402</v>
       </c>
       <c r="AF2">
-        <v>0.9785937141299238</v>
+        <v>0.9721195079807402</v>
       </c>
       <c r="AG2">
-        <v>0.9785937141299238</v>
+        <v>0.9721195079807402</v>
       </c>
       <c r="AH2">
-        <v>0.9785937141299238</v>
+        <v>0.9787829551221608</v>
       </c>
       <c r="AI2">
+        <v>0.9787829551221608</v>
+      </c>
+      <c r="AJ2">
+        <v>0.9787829551221608</v>
+      </c>
+      <c r="AK2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AL2">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38">
+      <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.08010474714932678</v>
+      </c>
+      <c r="G3">
+        <v>0.1193784646525051</v>
+      </c>
+      <c r="H3">
+        <v>0.3804901900913731</v>
+      </c>
+      <c r="I3">
+        <v>0.6218472194259734</v>
+      </c>
+      <c r="J3">
+        <v>0.6738292582825994</v>
+      </c>
+      <c r="K3">
+        <v>0.7750661809398322</v>
+      </c>
+      <c r="L3">
+        <v>0.8315832231739051</v>
+      </c>
+      <c r="M3">
+        <v>0.8315832231739051</v>
+      </c>
+      <c r="N3">
+        <v>0.8315832231739051</v>
+      </c>
+      <c r="O3">
+        <v>0.8394910906709205</v>
+      </c>
+      <c r="P3">
+        <v>0.8554863677532174</v>
+      </c>
+      <c r="Q3">
+        <v>0.8554863677532174</v>
+      </c>
+      <c r="R3">
+        <v>0.8554863677532174</v>
+      </c>
+      <c r="S3">
+        <v>0.8615438934436939</v>
+      </c>
+      <c r="T3">
+        <v>0.8972980718303594</v>
+      </c>
+      <c r="U3">
+        <v>0.8972980718303594</v>
+      </c>
+      <c r="V3">
+        <v>0.9440878209252156</v>
+      </c>
+      <c r="W3">
+        <v>0.9612762659940141</v>
+      </c>
+      <c r="X3">
+        <v>0.9612762659940141</v>
+      </c>
+      <c r="Y3">
+        <v>0.9612762659940141</v>
+      </c>
+      <c r="Z3">
+        <v>0.9612762659940141</v>
+      </c>
+      <c r="AA3">
+        <v>0.9612762659940141</v>
+      </c>
+      <c r="AB3">
+        <v>0.9612762659940141</v>
+      </c>
+      <c r="AC3">
+        <v>0.9612762659940141</v>
+      </c>
+      <c r="AD3">
+        <v>0.9612762659940141</v>
+      </c>
+      <c r="AE3">
+        <v>0.9612762659940141</v>
+      </c>
+      <c r="AF3">
+        <v>0.9612762659940141</v>
+      </c>
+      <c r="AG3">
+        <v>0.9633419966681679</v>
+      </c>
+      <c r="AH3">
+        <v>0.9752936017190713</v>
+      </c>
+      <c r="AI3">
+        <v>0.9752936017190713</v>
+      </c>
+      <c r="AJ3">
+        <v>0.9768126328591843</v>
+      </c>
+      <c r="AK3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AL3">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38">
+      <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.2931863829230743</v>
+      </c>
+      <c r="G4">
+        <v>0.3459788038928128</v>
+      </c>
+      <c r="H4">
+        <v>0.6813214827440905</v>
+      </c>
+      <c r="I4">
+        <v>0.6813214827440905</v>
+      </c>
+      <c r="J4">
+        <v>0.8361858377326674</v>
+      </c>
+      <c r="K4">
+        <v>0.8576510740294079</v>
+      </c>
+      <c r="L4">
+        <v>0.8778226765197064</v>
+      </c>
+      <c r="M4">
+        <v>0.8778226765197064</v>
+      </c>
+      <c r="N4">
+        <v>0.8778226765197064</v>
+      </c>
+      <c r="O4">
+        <v>0.8778226765197064</v>
+      </c>
+      <c r="P4">
+        <v>0.8778226765197064</v>
+      </c>
+      <c r="Q4">
+        <v>0.8778226765197064</v>
+      </c>
+      <c r="R4">
+        <v>0.8778226765197064</v>
+      </c>
+      <c r="S4">
+        <v>0.8924692941190977</v>
+      </c>
+      <c r="T4">
+        <v>0.8924692941190977</v>
+      </c>
+      <c r="U4">
+        <v>0.9291390503932495</v>
+      </c>
+      <c r="V4">
+        <v>0.9648417652748573</v>
+      </c>
+      <c r="W4">
+        <v>0.9648417652748573</v>
+      </c>
+      <c r="X4">
+        <v>0.9648417652748573</v>
+      </c>
+      <c r="Y4">
+        <v>0.9648417652748573</v>
+      </c>
+      <c r="Z4">
+        <v>0.9648417652748573</v>
+      </c>
+      <c r="AA4">
+        <v>0.9648417652748573</v>
+      </c>
+      <c r="AB4">
+        <v>0.9648417652748573</v>
+      </c>
+      <c r="AC4">
+        <v>0.9648417652748573</v>
+      </c>
+      <c r="AD4">
+        <v>0.9648417652748573</v>
+      </c>
+      <c r="AE4">
+        <v>0.9648417652748573</v>
+      </c>
+      <c r="AF4">
+        <v>0.9648417652748573</v>
+      </c>
+      <c r="AG4">
+        <v>0.9648417652748573</v>
+      </c>
+      <c r="AH4">
+        <v>0.9648417652748573</v>
+      </c>
+      <c r="AI4">
+        <v>0.9648417652748573</v>
+      </c>
+      <c r="AJ4">
+        <v>0.9911836651177359</v>
+      </c>
+      <c r="AK4">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:35">
-      <c r="A3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0.2230528271171323</v>
-      </c>
-      <c r="E3">
-        <v>0.2377273016756554</v>
-      </c>
-      <c r="F3">
-        <v>0.5557558990126259</v>
-      </c>
-      <c r="G3">
-        <v>0.6792197792084371</v>
-      </c>
-      <c r="H3">
-        <v>0.6870902168362752</v>
-      </c>
-      <c r="I3">
-        <v>0.6903805448133821</v>
-      </c>
-      <c r="J3">
-        <v>0.6903805448133821</v>
-      </c>
-      <c r="K3">
-        <v>0.6903805448133821</v>
-      </c>
-      <c r="L3">
-        <v>0.6903805448133821</v>
-      </c>
-      <c r="M3">
-        <v>0.6903805448133821</v>
-      </c>
-      <c r="N3">
-        <v>0.6903805448133821</v>
-      </c>
-      <c r="O3">
-        <v>0.7657479323353702</v>
-      </c>
-      <c r="P3">
-        <v>0.7843327593816846</v>
-      </c>
-      <c r="Q3">
-        <v>0.7843327593816846</v>
-      </c>
-      <c r="R3">
-        <v>0.7843327593816846</v>
-      </c>
-      <c r="S3">
-        <v>0.7843327593816846</v>
-      </c>
-      <c r="T3">
-        <v>0.8396980858979928</v>
-      </c>
-      <c r="U3">
-        <v>0.921266672147002</v>
-      </c>
-      <c r="V3">
-        <v>0.921266672147002</v>
-      </c>
-      <c r="W3">
-        <v>0.921266672147002</v>
-      </c>
-      <c r="X3">
-        <v>0.921266672147002</v>
-      </c>
-      <c r="Y3">
-        <v>0.921266672147002</v>
-      </c>
-      <c r="Z3">
-        <v>0.921266672147002</v>
-      </c>
-      <c r="AA3">
-        <v>0.921266672147002</v>
-      </c>
-      <c r="AB3">
-        <v>0.921266672147002</v>
-      </c>
-      <c r="AC3">
-        <v>0.9263024207867371</v>
-      </c>
-      <c r="AD3">
-        <v>0.9263024207867371</v>
-      </c>
-      <c r="AE3">
-        <v>0.9263024207867371</v>
-      </c>
-      <c r="AF3">
-        <v>0.9263024207867371</v>
-      </c>
-      <c r="AG3">
-        <v>0.9263024207867371</v>
-      </c>
-      <c r="AH3">
-        <v>0.9312686242843856</v>
-      </c>
-      <c r="AI3">
+      <c r="AL4">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
-      <c r="A4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0.01793053357807211</v>
-      </c>
-      <c r="E4">
-        <v>0.2092520004340559</v>
-      </c>
-      <c r="F4">
-        <v>0.405376949931078</v>
-      </c>
-      <c r="G4">
-        <v>0.7711153437768284</v>
-      </c>
-      <c r="H4">
-        <v>0.7711153437768284</v>
-      </c>
-      <c r="I4">
-        <v>0.8242603135931064</v>
-      </c>
-      <c r="J4">
-        <v>0.8242603135931064</v>
-      </c>
-      <c r="K4">
-        <v>0.8242603135931064</v>
-      </c>
-      <c r="L4">
-        <v>0.8242603135931064</v>
-      </c>
-      <c r="M4">
-        <v>0.8242603135931064</v>
-      </c>
-      <c r="N4">
-        <v>0.8242603135931064</v>
-      </c>
-      <c r="O4">
-        <v>0.8430768694494353</v>
-      </c>
-      <c r="P4">
-        <v>0.8775753494350929</v>
-      </c>
-      <c r="Q4">
-        <v>0.8775753494350929</v>
-      </c>
-      <c r="R4">
-        <v>0.8775753494350929</v>
-      </c>
-      <c r="S4">
-        <v>0.8844707941154749</v>
-      </c>
-      <c r="T4">
-        <v>0.8966102115827661</v>
-      </c>
-      <c r="U4">
-        <v>0.950101842357238</v>
-      </c>
-      <c r="V4">
-        <v>0.950101842357238</v>
-      </c>
-      <c r="W4">
-        <v>0.950101842357238</v>
-      </c>
-      <c r="X4">
-        <v>0.950101842357238</v>
-      </c>
-      <c r="Y4">
-        <v>0.950101842357238</v>
-      </c>
-      <c r="Z4">
-        <v>0.950101842357238</v>
-      </c>
-      <c r="AA4">
-        <v>0.950101842357238</v>
-      </c>
-      <c r="AB4">
-        <v>0.950101842357238</v>
-      </c>
-      <c r="AC4">
-        <v>0.9609640322422097</v>
-      </c>
-      <c r="AD4">
-        <v>0.9609640322422097</v>
-      </c>
-      <c r="AE4">
-        <v>0.9609640322422097</v>
-      </c>
-      <c r="AF4">
-        <v>0.9609640322422097</v>
-      </c>
-      <c r="AG4">
-        <v>0.9672940251401232</v>
-      </c>
-      <c r="AH4">
-        <v>0.9672940251401232</v>
-      </c>
-      <c r="AI4">
+    <row r="5" spans="1:38">
+      <c r="A5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.1024550660338008</v>
+      </c>
+      <c r="E5">
+        <v>0.1104429399561324</v>
+      </c>
+      <c r="F5">
+        <v>0.4569098094988979</v>
+      </c>
+      <c r="G5">
+        <v>0.7338302660146657</v>
+      </c>
+      <c r="H5">
+        <v>0.772791563483754</v>
+      </c>
+      <c r="I5">
+        <v>0.8051095901262819</v>
+      </c>
+      <c r="J5">
+        <v>0.8808169740234656</v>
+      </c>
+      <c r="K5">
+        <v>0.8808169740234656</v>
+      </c>
+      <c r="L5">
+        <v>0.8808169740234656</v>
+      </c>
+      <c r="M5">
+        <v>0.8808169740234656</v>
+      </c>
+      <c r="N5">
+        <v>0.8888758478714761</v>
+      </c>
+      <c r="O5">
+        <v>0.8888758478714761</v>
+      </c>
+      <c r="P5">
+        <v>0.8888758478714761</v>
+      </c>
+      <c r="Q5">
+        <v>0.8946233007464476</v>
+      </c>
+      <c r="R5">
+        <v>0.9275735202220001</v>
+      </c>
+      <c r="S5">
+        <v>0.9275735202220001</v>
+      </c>
+      <c r="T5">
+        <v>0.9752665931035188</v>
+      </c>
+      <c r="U5">
+        <v>0.9810795370735227</v>
+      </c>
+      <c r="V5">
+        <v>0.9810795370735227</v>
+      </c>
+      <c r="W5">
+        <v>0.9810795370735227</v>
+      </c>
+      <c r="X5">
+        <v>0.9810795370735227</v>
+      </c>
+      <c r="Y5">
+        <v>0.9810795370735227</v>
+      </c>
+      <c r="Z5">
+        <v>0.9810795370735227</v>
+      </c>
+      <c r="AA5">
+        <v>0.9810795370735227</v>
+      </c>
+      <c r="AB5">
+        <v>0.9810795370735227</v>
+      </c>
+      <c r="AC5">
+        <v>0.9810795370735227</v>
+      </c>
+      <c r="AD5">
+        <v>0.9810795370735227</v>
+      </c>
+      <c r="AE5">
+        <v>0.9810795370735227</v>
+      </c>
+      <c r="AF5">
+        <v>0.9810795370735227</v>
+      </c>
+      <c r="AG5">
+        <v>0.9810795370735227</v>
+      </c>
+      <c r="AH5">
+        <v>0.9810795370735227</v>
+      </c>
+      <c r="AI5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AJ5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AK5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AL5">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38">
+      <c r="A6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.01700878358292555</v>
+      </c>
+      <c r="G6">
+        <v>0.1336945396875693</v>
+      </c>
+      <c r="H6">
+        <v>0.3109623690875967</v>
+      </c>
+      <c r="I6">
+        <v>0.6847928665902455</v>
+      </c>
+      <c r="J6">
+        <v>0.6847928665902455</v>
+      </c>
+      <c r="K6">
+        <v>0.8041534028750219</v>
+      </c>
+      <c r="L6">
+        <v>0.8465029218364987</v>
+      </c>
+      <c r="M6">
+        <v>0.8516008187684548</v>
+      </c>
+      <c r="N6">
+        <v>0.8516008187684548</v>
+      </c>
+      <c r="O6">
+        <v>0.8551371687306193</v>
+      </c>
+      <c r="P6">
+        <v>0.8643448759769321</v>
+      </c>
+      <c r="Q6">
+        <v>0.868702695244849</v>
+      </c>
+      <c r="R6">
+        <v>0.868702695244849</v>
+      </c>
+      <c r="S6">
+        <v>0.868702695244849</v>
+      </c>
+      <c r="T6">
+        <v>0.9058591373878525</v>
+      </c>
+      <c r="U6">
+        <v>0.9058591373878525</v>
+      </c>
+      <c r="V6">
+        <v>0.9488326623364672</v>
+      </c>
+      <c r="W6">
+        <v>0.9824741394048764</v>
+      </c>
+      <c r="X6">
+        <v>0.9824741394048764</v>
+      </c>
+      <c r="Y6">
+        <v>0.9824741394048764</v>
+      </c>
+      <c r="Z6">
+        <v>0.9824741394048764</v>
+      </c>
+      <c r="AA6">
+        <v>0.9824741394048764</v>
+      </c>
+      <c r="AB6">
+        <v>0.9824741394048764</v>
+      </c>
+      <c r="AC6">
+        <v>0.9824741394048764</v>
+      </c>
+      <c r="AD6">
+        <v>0.9824741394048764</v>
+      </c>
+      <c r="AE6">
+        <v>0.9824741394048764</v>
+      </c>
+      <c r="AF6">
+        <v>0.9824741394048764</v>
+      </c>
+      <c r="AG6">
+        <v>0.9824741394048764</v>
+      </c>
+      <c r="AH6">
+        <v>0.9824741394048764</v>
+      </c>
+      <c r="AI6">
+        <v>0.9824741394048764</v>
+      </c>
+      <c r="AJ6">
+        <v>0.9824741394048764</v>
+      </c>
+      <c r="AK6">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:35">
-      <c r="A5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0.0166222887523202</v>
-      </c>
-      <c r="E5">
-        <v>0.2483779460958578</v>
-      </c>
-      <c r="F5">
-        <v>0.4327543826518753</v>
-      </c>
-      <c r="G5">
-        <v>0.8120721377693281</v>
-      </c>
-      <c r="H5">
-        <v>0.8120721377693281</v>
-      </c>
-      <c r="I5">
-        <v>0.8516663781365217</v>
-      </c>
-      <c r="J5">
-        <v>0.8516663781365217</v>
-      </c>
-      <c r="K5">
-        <v>0.8523698303673665</v>
-      </c>
-      <c r="L5">
-        <v>0.8523698303673665</v>
-      </c>
-      <c r="M5">
-        <v>0.8523698303673665</v>
-      </c>
-      <c r="N5">
-        <v>0.8523698303673665</v>
-      </c>
-      <c r="O5">
-        <v>0.8533972351141051</v>
-      </c>
-      <c r="P5">
-        <v>0.8651557046838997</v>
-      </c>
-      <c r="Q5">
-        <v>0.8651557046838997</v>
-      </c>
-      <c r="R5">
-        <v>0.8651557046838997</v>
-      </c>
-      <c r="S5">
-        <v>0.8651557046838997</v>
-      </c>
-      <c r="T5">
-        <v>0.8843969732736227</v>
-      </c>
-      <c r="U5">
-        <v>0.9450358878543259</v>
-      </c>
-      <c r="V5">
-        <v>0.9450358878543259</v>
-      </c>
-      <c r="W5">
-        <v>0.9450358878543259</v>
-      </c>
-      <c r="X5">
-        <v>0.9450358878543259</v>
-      </c>
-      <c r="Y5">
-        <v>0.9450358878543259</v>
-      </c>
-      <c r="Z5">
-        <v>0.9450358878543259</v>
-      </c>
-      <c r="AA5">
-        <v>0.9450358878543259</v>
-      </c>
-      <c r="AB5">
-        <v>0.9450358878543259</v>
-      </c>
-      <c r="AC5">
-        <v>0.9450358878543259</v>
-      </c>
-      <c r="AD5">
-        <v>0.9450358878543259</v>
-      </c>
-      <c r="AE5">
-        <v>0.9450358878543259</v>
-      </c>
-      <c r="AF5">
-        <v>0.9450358878543259</v>
-      </c>
-      <c r="AG5">
-        <v>0.9450358878543259</v>
-      </c>
-      <c r="AH5">
-        <v>0.9450358878543259</v>
-      </c>
-      <c r="AI5">
-        <v>0.9999999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35">
-      <c r="A6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0.1319855251659318</v>
-      </c>
-      <c r="E6">
-        <v>0.1777773734242054</v>
-      </c>
-      <c r="F6">
-        <v>0.5125514968849987</v>
-      </c>
-      <c r="G6">
-        <v>0.7817505274476652</v>
-      </c>
-      <c r="H6">
-        <v>0.7846187543253268</v>
-      </c>
-      <c r="I6">
-        <v>0.8117267477092541</v>
-      </c>
-      <c r="J6">
-        <v>0.8174156183536757</v>
-      </c>
-      <c r="K6">
-        <v>0.8174156183536757</v>
-      </c>
-      <c r="L6">
-        <v>0.8174156183536757</v>
-      </c>
-      <c r="M6">
-        <v>0.8174156183536757</v>
-      </c>
-      <c r="N6">
-        <v>0.8174156183536757</v>
-      </c>
-      <c r="O6">
-        <v>0.8384806476962104</v>
-      </c>
-      <c r="P6">
-        <v>0.8453054039652245</v>
-      </c>
-      <c r="Q6">
-        <v>0.8453054039652245</v>
-      </c>
-      <c r="R6">
-        <v>0.8453054039652245</v>
-      </c>
-      <c r="S6">
-        <v>0.8453054039652245</v>
-      </c>
-      <c r="T6">
-        <v>0.8852963887775146</v>
-      </c>
-      <c r="U6">
-        <v>0.9299167591907591</v>
-      </c>
-      <c r="V6">
-        <v>0.9299167591907591</v>
-      </c>
-      <c r="W6">
-        <v>0.9299167591907591</v>
-      </c>
-      <c r="X6">
-        <v>0.9299167591907591</v>
-      </c>
-      <c r="Y6">
-        <v>0.9299167591907591</v>
-      </c>
-      <c r="Z6">
-        <v>0.9299167591907591</v>
-      </c>
-      <c r="AA6">
-        <v>0.9379264793474426</v>
-      </c>
-      <c r="AB6">
-        <v>0.9379264793474426</v>
-      </c>
-      <c r="AC6">
-        <v>0.9465997689400133</v>
-      </c>
-      <c r="AD6">
-        <v>0.9465997689400133</v>
-      </c>
-      <c r="AE6">
-        <v>0.9465997689400133</v>
-      </c>
-      <c r="AF6">
-        <v>0.9465997689400133</v>
-      </c>
-      <c r="AG6">
-        <v>0.9465997689400133</v>
-      </c>
-      <c r="AH6">
-        <v>0.9465997689400133</v>
-      </c>
-      <c r="AI6">
+      <c r="AL6">
         <v>1</v>
       </c>
     </row>
@@ -1862,66 +1979,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.616179014361671</v>
+        <v>0.7085775935541092</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>21</v>
@@ -1930,39 +2047,39 @@
         <v>500</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.6218472194259734</v>
+      </c>
+      <c r="G3">
         <v>5</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.5557558990126259</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
       </c>
       <c r="H3">
         <v>21</v>
@@ -1971,36 +2088,36 @@
         <v>500</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7711153437768284</v>
+        <v>0.6813214827440905</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -2012,27 +2129,27 @@
         <v>500</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -2041,10 +2158,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8120721377693281</v>
+        <v>0.7338302660146657</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <v>21</v>
@@ -2053,36 +2170,36 @@
         <v>500</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5125514968849987</v>
+        <v>0.6847928665902455</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -2094,16 +2211,16 @@
         <v>500</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2121,66 +2238,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8065473849260222</v>
+        <v>0.7085775935541092</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>21</v>
@@ -2189,39 +2306,39 @@
         <v>500</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7657479323353702</v>
+        <v>0.7750661809398322</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H3">
         <v>21</v>
@@ -2230,39 +2347,39 @@
         <v>500</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.8361858377326674</v>
+      </c>
+      <c r="G4">
         <v>6</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.7711153437768284</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
       </c>
       <c r="H4">
         <v>21</v>
@@ -2271,27 +2388,27 @@
         <v>500</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -2300,10 +2417,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8120721377693281</v>
+        <v>0.7338302660146657</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <v>21</v>
@@ -2312,39 +2429,39 @@
         <v>500</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.8041534028750219</v>
+      </c>
+      <c r="G6">
         <v>6</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.7817505274476652</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
       </c>
       <c r="H6">
         <v>21</v>
@@ -2353,16 +2470,16 @@
         <v>500</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2380,66 +2497,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8065473849260222</v>
+        <v>0.830554035763587</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H2">
         <v>21</v>
@@ -2448,39 +2565,39 @@
         <v>500</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8396980858979928</v>
+        <v>0.8315832231739051</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>21</v>
@@ -2489,36 +2606,36 @@
         <v>500</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8242603135931064</v>
+        <v>0.8361858377326674</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -2530,39 +2647,39 @@
         <v>500</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8120721377693281</v>
+        <v>0.8051095901262819</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H5">
         <v>21</v>
@@ -2571,39 +2688,39 @@
         <v>500</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8117267477092541</v>
+        <v>0.8041534028750219</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H6">
         <v>21</v>
@@ -2612,16 +2729,16 @@
         <v>500</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2639,54 +2756,54 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>19</v>
@@ -2695,10 +2812,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9056125556263324</v>
+        <v>0.9195001440166766</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>21</v>
@@ -2707,39 +2824,39 @@
         <v>500</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.921266672147002</v>
+        <v>0.9440878209252156</v>
       </c>
       <c r="G3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>21</v>
@@ -2748,27 +2865,27 @@
         <v>500</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>20</v>
@@ -2777,10 +2894,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.950101842357238</v>
+        <v>0.9291390503932495</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>21</v>
@@ -2789,39 +2906,39 @@
         <v>500</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9450358878543259</v>
+        <v>0.9275735202220001</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <v>21</v>
@@ -2830,39 +2947,39 @@
         <v>500</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9299167591907591</v>
+        <v>0.9058591373878525</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>21</v>
@@ -2871,16 +2988,16 @@
         <v>500</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
